--- a/bots/crawl_ch/output/electronics_2022-08-17.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1305,36 +1305,34 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1343,12 +1341,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1358,7 +1356,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1368,60 +1366,60 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4905485</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1431,7 +1429,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1446,53 +1444,55 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>4905485</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
+          <t>Alkaline Batterie 6LP3146/9V</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1512,17 +1512,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
+          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1664,29 +1664,29 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1725,60 +1725,58 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1786,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,53 +1801,55 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2238,48 +2238,50 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2289,7 +2291,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2299,60 +2301,58 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>4</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2372,39 +2372,39 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2448,34 +2448,34 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3013,36 +3013,30 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3051,42 +3045,26 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>19.95/1ST</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3157,30 +3135,36 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3189,26 +3173,42 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>19.95/1ST</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -3865,24 +3865,24 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3906,90 +3906,110 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -4003,12 +4023,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4018,7 +4038,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4028,237 +4048,215 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4267,7 +4265,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -4276,49 +4274,51 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -4332,83 +4332,107 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>59.95</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
@@ -4417,48 +4441,64 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4466,23 +4506,25 @@
           <t>6ST</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4492,7 +4534,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4507,112 +4549,92 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4621,12 +4643,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4636,7 +4658,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4646,60 +4668,58 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4709,7 +4729,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4724,29 +4744,29 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4760,17 +4780,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4780,7 +4800,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4790,17 +4810,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4891,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
@@ -4944,110 +4964,92 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -5056,51 +5058,49 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5109,34 +5109,34 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5165,29 +5165,29 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5211,34 +5211,34 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5262,34 +5262,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5299,12 +5299,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5313,44 +5313,46 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5369,37 +5371,37 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5408,7 +5410,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5417,42 +5419,40 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>7</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5521,34 +5521,34 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5577,29 +5577,29 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5609,12 +5609,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5628,35 +5628,37 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5665,7 +5667,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5679,37 +5681,35 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5732,29 +5732,29 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5783,35 +5783,37 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5820,7 +5822,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5834,87 +5836,105 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5923,17 +5943,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5943,7 +5963,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5953,39 +5973,39 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5999,12 +6019,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6014,7 +6034,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6024,39 +6044,39 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6070,12 +6090,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6085,7 +6105,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6095,39 +6115,39 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -6146,7 +6166,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6156,7 +6176,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6166,88 +6186,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-17 07:04:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>2022-08-17 07:04:03</t>
+          <t>2022-08-17 20:59:39</t>
         </is>
       </c>
     </row>
